--- a/biology/Botanique/Cereus_jamacaru/Cereus_jamacaru.xlsx
+++ b/biology/Botanique/Cereus_jamacaru/Cereus_jamacaru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cereus jamacaru (appelé mandacaru en portugais) est une espèce de cactus. Il est commun dans le Nordeste, au Brésil, où il atteint couramment 5 mètres de hauteur.
 Une forme inerme est utilisée pour nourrir les animaux. Le type le plus courant est très épineux et est également utilisé pour l’alimentation animale, après avoir brûlé ou coupé les épines. Le Mandacaru est hautement résistant à la sécheresse.
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Cereus jamacaru » (voir la liste des auteurs).</t>
         </is>
